--- a/src/test/resources/com/sample/mvcApp/feature/mypage/task/adapter/db/jpaadapter/Test2_1.xlsx
+++ b/src/test/resources/com/sample/mvcApp/feature/mypage/task/adapter/db/jpaadapter/Test2_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Java\Project\SpringMVC\demo\src\test\resources\com\sample\mvcApp\feature\mypage\task\adapter\db\jpaadapter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA1ABFD-101B-40CE-A373-AA648B5D0A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6F203-B75B-4167-8B3C-A996D38214BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>IN_PROGRESS</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>07:25:00</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -226,6 +222,13 @@
   </si>
   <si>
     <t>system</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>進行中</t>
+    <rPh sb="0" eb="3">
+      <t>シンコウチュウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -605,9 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -688,16 +689,16 @@
         <v>18</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>19</v>
@@ -738,16 +739,16 @@
         <v>26</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>19</v>
@@ -788,16 +789,16 @@
         <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>31</v>
@@ -838,19 +839,19 @@
         <v>35</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="L5" s="4" t="b">
         <v>1</v>
@@ -859,13 +860,13 @@
         <v>45944.361111111109</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O5" s="5">
         <v>45944.361111111109</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
